--- a/RTL/ControlUnit/Instructions.xlsx
+++ b/RTL/ControlUnit/Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/noah_woelki_bwedu_de/Documents/DHBW/Studienarbeit/EDRICO/RTL/ControlUnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B032F1-C667-4C1F-ABC2-01297145952B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{E1B032F1-C667-4C1F-ABC2-01297145952B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3994321E-0DDB-488D-9128-1B9422CEBE86}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1564D8D6-0412-4888-BC3B-BF158BBB57A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BIT</t>
   </si>
@@ -97,6 +97,45 @@
   </si>
   <si>
     <t>SLTIU</t>
+  </si>
+  <si>
+    <t>LUI</t>
+  </si>
+  <si>
+    <t>AUIPC</t>
+  </si>
+  <si>
+    <t>JAL</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>BLTU</t>
+  </si>
+  <si>
+    <t>ECALL</t>
+  </si>
+  <si>
+    <t>EBREAK</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>MRET</t>
+  </si>
+  <si>
+    <t>WFI</t>
+  </si>
+  <si>
+    <t>CSRRW</t>
+  </si>
+  <si>
+    <t>CSRRWI</t>
   </si>
 </sst>
 </file>
@@ -168,11 +207,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A24D75-4A62-4BD0-ADC9-1AF25F8BE728}">
-  <dimension ref="A4:AG24"/>
+  <dimension ref="A4:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,143 +538,179 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
       <c r="AG4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>31</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>26</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>23</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>22</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>21</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>20</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>19</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>18</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>17</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>16</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>15</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>14</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>13</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>12</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>11</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>10</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>9</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>8</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>7</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>6</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>5</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>4</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>3</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>2</v>
       </c>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2">
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
         <v>0</v>
       </c>
@@ -651,13 +726,13 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6">
@@ -701,6 +776,42 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
         <v>0</v>
       </c>
@@ -716,13 +827,13 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7">
@@ -766,6 +877,42 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -781,13 +928,13 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
         <v>1</v>
       </c>
       <c r="U8">
@@ -831,6 +978,42 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
         <v>0</v>
       </c>
@@ -846,13 +1029,13 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9">
@@ -896,6 +1079,42 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>0</v>
       </c>
@@ -911,13 +1130,13 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10">
@@ -961,6 +1180,42 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11">
         <v>0</v>
       </c>
@@ -976,13 +1231,13 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
         <v>1</v>
       </c>
       <c r="U11">
@@ -1026,6 +1281,42 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
         <v>0</v>
       </c>
@@ -1041,13 +1332,13 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
         <v>1</v>
       </c>
       <c r="U12">
@@ -1091,6 +1382,42 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>0</v>
       </c>
@@ -1106,13 +1433,13 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
         <v>1</v>
       </c>
       <c r="U13">
@@ -1156,6 +1483,42 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
         <v>0</v>
       </c>
@@ -1171,13 +1534,13 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
         <v>1</v>
       </c>
       <c r="U14">
@@ -1221,6 +1584,42 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
         <v>0</v>
       </c>
@@ -1236,13 +1635,13 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15">
@@ -1286,6 +1685,42 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -1301,13 +1736,13 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16">
@@ -1350,7 +1785,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
         <v>0</v>
       </c>
@@ -1366,13 +1837,13 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <v>1</v>
       </c>
       <c r="U17">
@@ -1415,7 +1886,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
         <v>0</v>
       </c>
@@ -1431,13 +1938,13 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18">
@@ -1480,7 +1987,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19">
         <v>0</v>
       </c>
@@ -1496,13 +2039,13 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
         <v>1</v>
       </c>
       <c r="U19">
@@ -1545,7 +2088,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
         <v>0</v>
       </c>
@@ -1561,13 +2140,13 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20">
@@ -1610,7 +2189,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21">
         <v>0</v>
       </c>
@@ -1626,13 +2241,13 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
         <v>1</v>
       </c>
       <c r="U21">
@@ -1675,7 +2290,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
         <v>0</v>
       </c>
@@ -1691,13 +2342,13 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
         <v>1</v>
       </c>
       <c r="U22">
@@ -1740,7 +2391,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
         <v>0</v>
       </c>
@@ -1756,13 +2443,13 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23">
@@ -1805,7 +2492,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24">
         <v>0</v>
       </c>
@@ -1821,13 +2544,13 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
         <v>1</v>
       </c>
       <c r="U24">
@@ -1868,6 +2591,1319 @@
       </c>
       <c r="AG24" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/RTL/ControlUnit/Instructions.xlsx
+++ b/RTL/ControlUnit/Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/noah_woelki_bwedu_de/Documents/DHBW/Studienarbeit/EDRICO/RTL/ControlUnit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Noah\Dokumente\Code\EDRICO\EDRICO\RTL\ControlUnit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{E1B032F1-C667-4C1F-ABC2-01297145952B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3994321E-0DDB-488D-9128-1B9422CEBE86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAED40-173B-42F8-8CE4-F0D74A4C87F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1564D8D6-0412-4888-BC3B-BF158BBB57A2}"/>
+    <workbookView xWindow="-14835" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{1564D8D6-0412-4888-BC3B-BF158BBB57A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>BIT</t>
   </si>
@@ -137,12 +137,24 @@
   <si>
     <t>CSRRWI</t>
   </si>
+  <si>
+    <t>iie???</t>
+  </si>
+  <si>
+    <t>wrong imm, wrong A_MUX</t>
+  </si>
+  <si>
+    <t>type_of instr. Wrong</t>
+  </si>
+  <si>
+    <t>TOI not set correctly?!?!??! Why A_MUX = 01?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +169,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +191,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -196,6 +226,56 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -205,10 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,6 +313,2891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Valid</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,58 +3496,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A24D75-4A62-4BD0-ADC9-1AF25F8BE728}">
-  <dimension ref="A4:AG43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A24D75-4A62-4BD0-ADC9-1AF25F8BE728}">
+  <dimension ref="A4:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="32" width="3.28515625" customWidth="1"/>
+    <col min="35" max="35" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
       <c r="AG4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -674,56 +3646,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2">
@@ -735,96 +3707,99 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="AI6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
       <c r="R7" s="2">
@@ -836,96 +3811,96 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -937,96 +3912,96 @@
       <c r="T8" s="2">
         <v>1</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2">
@@ -1038,96 +4013,96 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="s">
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0</v>
       </c>
       <c r="R10" s="2">
@@ -1139,96 +4114,96 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0</v>
       </c>
       <c r="R11" s="2">
@@ -1240,96 +4215,96 @@
       <c r="T11" s="2">
         <v>1</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="s">
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="2">
@@ -1341,96 +4316,96 @@
       <c r="T12" s="2">
         <v>1</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="s">
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>0</v>
       </c>
       <c r="R13" s="2">
@@ -1442,96 +4417,96 @@
       <c r="T13" s="2">
         <v>1</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="2">
@@ -1543,96 +4518,96 @@
       <c r="T14" s="2">
         <v>1</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="s">
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
         <v>0</v>
       </c>
       <c r="R15" s="2">
@@ -1644,96 +4619,99 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="s">
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="AI15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
         <v>0</v>
       </c>
       <c r="R16" s="2">
@@ -1745,96 +4723,96 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
         <v>1</v>
       </c>
       <c r="AG16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
         <v>0</v>
       </c>
       <c r="R17" s="2">
@@ -1846,96 +4824,96 @@
       <c r="T17" s="2">
         <v>1</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
         <v>1</v>
       </c>
       <c r="AG17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0</v>
       </c>
       <c r="R18" s="2">
@@ -1947,96 +4925,96 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
         <v>1</v>
       </c>
       <c r="AG18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+    <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
         <v>0</v>
       </c>
       <c r="R19" s="2">
@@ -2048,96 +5026,96 @@
       <c r="T19" s="2">
         <v>1</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
         <v>1</v>
       </c>
       <c r="AG19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <v>0</v>
       </c>
       <c r="R20" s="2">
@@ -2149,96 +5127,96 @@
       <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
         <v>1</v>
       </c>
       <c r="AG20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
         <v>0</v>
       </c>
       <c r="R21" s="2">
@@ -2250,96 +5228,96 @@
       <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
         <v>1</v>
       </c>
       <c r="AG21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0</v>
       </c>
       <c r="R22" s="2">
@@ -2351,96 +5329,96 @@
       <c r="T22" s="2">
         <v>1</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2">
         <v>1</v>
       </c>
       <c r="AG22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
         <v>0</v>
       </c>
       <c r="R23" s="2">
@@ -2452,148 +5430,148 @@
       <c r="T23" s="2">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="2">
         <v>1</v>
       </c>
       <c r="AG23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-      <c r="S24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
+    <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="5">
         <v>1</v>
       </c>
       <c r="AG24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2694,7 +5672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2795,7 +5773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2892,11 +5870,14 @@
       <c r="AF28">
         <v>1</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="AI28" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2997,7 +5978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3097,8 +6078,11 @@
       <c r="AG31" t="s">
         <v>25</v>
       </c>
+      <c r="AI31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3911,5 +6895,718 @@
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId8" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId9" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId10" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId11" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId12" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId13" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId14" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId15" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId16" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId17" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId18" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId19" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId20" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId21" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId22" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId23" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId24" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId25" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId26" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId27" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId28" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId29" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId30" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId31" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId32" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId33" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId34" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId35" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/RTL/ControlUnit/Instructions.xlsx
+++ b/RTL/ControlUnit/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Noah\Dokumente\Code\EDRICO\EDRICO\RTL\ControlUnit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAED40-173B-42F8-8CE4-F0D74A4C87F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CA8CE-A78D-4A17-9674-677D81F38657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14835" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{1564D8D6-0412-4888-BC3B-BF158BBB57A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1564D8D6-0412-4888-BC3B-BF158BBB57A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>BIT</t>
   </si>
@@ -138,16 +138,22 @@
     <t>CSRRWI</t>
   </si>
   <si>
-    <t>iie???</t>
+    <t>LB</t>
   </si>
   <si>
-    <t>wrong imm, wrong A_MUX</t>
+    <t>LH</t>
   </si>
   <si>
-    <t>type_of instr. Wrong</t>
+    <t>LW</t>
   </si>
   <si>
-    <t>TOI not set correctly?!?!??! Why A_MUX = 01?</t>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,19 +197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -293,8 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,11 +308,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +364,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,27 +372,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,15 +400,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2092,7 +2084,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2177,8 +2169,8 @@
         <xdr:to>
           <xdr:col>34</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2263,8 +2255,8 @@
         <xdr:to>
           <xdr:col>34</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2436,7 +2428,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2607,8 +2599,8 @@
         <xdr:to>
           <xdr:col>34</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2780,7 +2772,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2952,7 +2944,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,7 +3030,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3124,7 +3116,7 @@
           <xdr:col>34</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3497,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A24D75-4A62-4BD0-ADC9-1AF25F8BE728}">
-  <dimension ref="A4:AI43"/>
+  <dimension ref="A4:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,46 +3501,46 @@
     <col min="35" max="35" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
       <c r="AG4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -3646,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -3746,11 +3738,8 @@
       <c r="AG6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -3847,11 +3836,11 @@
       <c r="AF7" s="2">
         <v>1</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -3948,11 +3937,11 @@
       <c r="AF8" s="2">
         <v>1</v>
       </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AG8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -4049,11 +4038,11 @@
       <c r="AF9" s="2">
         <v>1</v>
       </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AG9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -4150,11 +4139,11 @@
       <c r="AF10" s="2">
         <v>1</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -4251,11 +4240,11 @@
       <c r="AF11" s="2">
         <v>1</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -4352,11 +4341,11 @@
       <c r="AF12" s="2">
         <v>1</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AG12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -4453,11 +4442,11 @@
       <c r="AF13" s="2">
         <v>1</v>
       </c>
-      <c r="AG13" s="7" t="s">
+      <c r="AG13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -4554,11 +4543,11 @@
       <c r="AF14" s="2">
         <v>1</v>
       </c>
-      <c r="AG14" s="7" t="s">
+      <c r="AG14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -4658,11 +4647,8 @@
       <c r="AG15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AI15" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -4759,11 +4745,11 @@
       <c r="AF16" s="2">
         <v>1</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -4860,11 +4846,11 @@
       <c r="AF17" s="2">
         <v>1</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -4961,11 +4947,11 @@
       <c r="AF18" s="2">
         <v>1</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -5062,11 +5048,11 @@
       <c r="AF19" s="2">
         <v>1</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -5163,11 +5149,11 @@
       <c r="AF20" s="2">
         <v>1</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -5264,11 +5250,11 @@
       <c r="AF21" s="2">
         <v>1</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -5365,11 +5351,11 @@
       <c r="AF22" s="2">
         <v>1</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -5466,11 +5452,11 @@
       <c r="AF23" s="2">
         <v>1</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -5567,1327 +5553,1951 @@
       <c r="AF24" s="5">
         <v>1</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="s">
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG25" s="6"/>
+    </row>
+    <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27" t="s">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="8" t="s">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AI28" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="s">
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG30" s="6"/>
+    </row>
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI31" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34" t="s">
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG33" s="6"/>
+    </row>
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35" t="s">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="6" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="s">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39" t="s">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG38" s="6"/>
+    </row>
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>1</v>
-      </c>
-      <c r="AB40">
-        <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40" t="s">
+      <c r="A40" s="2">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42" t="s">
+    <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG41" s="6"/>
+    </row>
+    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <v>1</v>
-      </c>
-      <c r="AB43">
-        <v>1</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43" t="s">
+      <c r="A43" s="2">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>1</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="45" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG48" s="6"/>
+    </row>
+    <row r="49" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7334,7 +7944,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7355,8 +7965,8 @@
                   <to>
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7377,8 +7987,8 @@
                   <to>
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7422,7 +8032,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7465,8 +8075,8 @@
                   <to>
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7510,7 +8120,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7554,7 +8164,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7576,7 +8186,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7598,7 +8208,7 @@
                     <xdr:col>34</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
